--- a/static/test_config/config_VM.xlsx
+++ b/static/test_config/config_VM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/PycharmProjects/MC_Test_web/static/test_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD3104-75E2-BC45-88DD-DC578F7E6A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABC290-5D05-0F41-A6F4-B3B56DCAB77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{23C2DCD3-4BA3-BF4E-8E61-67131C598746}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>M</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>first group</t>
   </si>
@@ -62,12 +59,6 @@
     <t>mid group</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -84,6 +75,9 @@
   </si>
   <si>
     <t>VM</t>
+  </si>
+  <si>
+    <t>; blank if there is only one group</t>
   </si>
 </sst>
 </file>
@@ -465,80 +459,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D002EF5-4EA2-7847-B581-A7A8C1384107}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
